--- a/biology/Zoologie/Geotrupidae/Geotrupidae.xlsx
+++ b/biology/Zoologie/Geotrupidae/Geotrupidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolboceratidae
 Les Geotrupidae forment une famille d'insectes coléoptères, issus de la super-famille des Scarabaeoidea (scarabées). Leur nom vient du grec τρυπάω, "percer".
@@ -512,11 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette famille a été décrite par l'entomologiste français Pierre-André Latreille en 1802, sous le nom de Geotrupidae.
-Synonymie
-Bolboceratidae (Mulsant, 1842)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par l'entomologiste français Pierre-André Latreille en 1802, sous le nom de Geotrupidae.
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +554,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bolboceratidae (Mulsant, 1842)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geotrupidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geotrupidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe 3 sous-familles selon ITIS
 Bolboceratinae (Mulsant, 1842)
@@ -553,31 +604,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Geotrupidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Geotrupidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces insectes observés tantôt seuls, tantôt en groupes de plus d'une dizaine d'individus, jouent un rôle majeur dans le recyclage des excréments, et pour certaines espèces des cadavres d'invertébrés, y compris d'individus de leur propre espèce. On les voit parfois boire la sève d'arbres coupés, ou mourir par dizaines dans un fond de canette de bière abandonnée en forêt. 
 Le géotrupe Anoplotrupes stercorosus peut consommer des champignons en décomposition (Boletus) et des cadavres d'escargots ou de reptiles (lézards, orvets, serpents...), notamment écrasés sur les pistes et layons forestiers (mortalité animale due aux véhicules), ou écrasés par des VTT, piétons, chevaux ou autres gros animaux.
